--- a/customers.xlsx
+++ b/customers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>customer_id</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>0912345687</t>
+  </si>
+  <si>
+    <t>customer_code</t>
   </si>
 </sst>
 </file>
@@ -495,22 +498,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,8 +526,11 @@
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -537,8 +543,11 @@
       <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>9876543212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -551,8 +560,11 @@
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>9876543213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -565,8 +577,11 @@
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>9876543214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -579,8 +594,11 @@
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>9876543215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -593,8 +611,11 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>9876543216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -607,8 +628,11 @@
       <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>9876543217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -621,8 +645,11 @@
       <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>9876543218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -635,8 +662,11 @@
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>9876543219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -649,8 +679,11 @@
       <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>9876543220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -663,24 +696,27 @@
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>9876543221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
     </row>
